--- a/Busn218-MG.xlsx
+++ b/Busn218-MG.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelgris/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelgris/Downloads/ExcelHW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA5B01E-1714-7B4B-99E5-5218C01717BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D97F4D6-53BB-F24A-BD60-3D2BD7BF46E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11680" firstSheet="16" activeTab="28" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3400" windowWidth="25600" windowHeight="11680" firstSheet="18" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="25" r:id="rId1"/>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>UBRO-5604-0002</v>
+        <v>ZLOM-4349-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -8498,11 +8498,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>37685</v>
+        <v>38300</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>42344</v>
+        <v>56059</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -8570,7 +8570,7 @@
         <v>FirstName9</v>
       </c>
       <c r="J6" s="75" t="str">
-        <f t="shared" ref="J6:L6" si="2">VLOOKUP($H6,$A$7:$E$90, MATCH(J5,$A$6:$E$6,0),0)</f>
+        <f t="shared" ref="J6:K6" si="2">VLOOKUP($H6,$A$7:$E$90, MATCH(J5,$A$6:$E$6,0),0)</f>
         <v>LastName10</v>
       </c>
       <c r="K6" s="129">
@@ -10238,7 +10238,7 @@
       </c>
       <c r="AA3" t="str">
         <f ca="1">CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;CHAR(65+INT(RAND()*25+1))&amp;"-"&amp;RANDBETWEEN(1000,9999)&amp;"-"&amp;TEXT(ROWS(AA$2:AA3),"0000")</f>
-        <v>IPKT-4960-0002</v>
+        <v>KXLU-2921-0002</v>
       </c>
       <c r="AB3" t="s">
         <v>247</v>
@@ -10248,11 +10248,11 @@
       </c>
       <c r="AD3" s="74">
         <f t="shared" ref="AD3" ca="1" si="0">RANDBETWEEN(37000,40300)</f>
-        <v>38755</v>
+        <v>39096</v>
       </c>
       <c r="AE3" s="69">
         <f ca="1">RANDBETWEEN(29000,59000)</f>
-        <v>35835</v>
+        <v>47308</v>
       </c>
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.2">
@@ -26338,7 +26338,7 @@
   </sheetPr>
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -30243,8 +30243,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -30297,8 +30297,14 @@
       <c r="C6" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="8" t="b">
+        <f>ISNUMBER(MATCH(C6,$A$6:$A$15,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="8" t="b">
+        <f>ISNA(MATCH(C6,A6:A15,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
@@ -30307,8 +30313,14 @@
       <c r="C7" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="D7" s="8" t="b">
+        <f t="shared" ref="D7:D13" si="0">ISNUMBER(MATCH(C7,$A$6:$A$15,0))</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="8" t="b">
+        <f t="shared" ref="G7:G13" si="1">ISNA(MATCH(C7,A7:A16,0))</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
@@ -30317,8 +30329,14 @@
       <c r="C8" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="D8" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -30327,8 +30345,14 @@
       <c r="C9" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="D9" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
@@ -30337,8 +30361,14 @@
       <c r="C10" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="G10" s="8"/>
+      <c r="D10" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
@@ -30347,8 +30377,14 @@
       <c r="C11" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
@@ -30357,8 +30393,14 @@
       <c r="C12" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="D12" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
@@ -30367,8 +30409,14 @@
       <c r="C13" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="D13" s="8" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
@@ -30393,7 +30441,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
